--- a/Excel/AirpositiveGL.xlsx
+++ b/Excel/AirpositiveGL.xlsx
@@ -327,9 +327,6 @@
     <t>AE Branch 01 - Dubai</t>
   </si>
   <si>
-    <t>9210291221</t>
-  </si>
-  <si>
     <t xml:space="preserve">AE - BPS </t>
   </si>
   <si>
@@ -430,6 +427,9 @@
   </si>
   <si>
     <t>100</t>
+  </si>
+  <si>
+    <t>9210291267</t>
   </si>
 </sst>
 </file>
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CF1" workbookViewId="0">
-      <selection activeCell="CJ17" sqref="CJ17"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1164,10 +1164,10 @@
         <v>89</v>
       </c>
       <c r="CL1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="CM1" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="CM1" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="CN1" s="2" t="s">
         <v>88</v>
@@ -1232,73 +1232,73 @@
         <v>97</v>
       </c>
       <c r="T2" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="U2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X2" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="W2" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA2" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="Y2" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AB2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC2" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="AB2" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AD2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE2" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="AD2" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AF2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG2" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="AF2" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AH2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI2" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="AH2" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AJ2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK2" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AJ2" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK2" s="7" t="s">
+      <c r="AL2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM2" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="AL2" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AN2" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AO2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP2" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="AO2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP2" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="AQ2" s="9" t="s">
         <v>97</v>
@@ -1316,34 +1316,34 @@
         <v>97</v>
       </c>
       <c r="AV2" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW2" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="AW2" s="9" t="s">
+      <c r="AX2" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY2" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="AX2" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AY2" s="10" t="s">
+      <c r="AZ2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA2" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="AZ2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA2" s="10" t="s">
+      <c r="BB2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC2" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="BB2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="BC2" s="9" t="s">
+      <c r="BD2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE2" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="BD2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="BE2" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="BF2" s="10" t="s">
         <v>94</v>
@@ -1355,7 +1355,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="BI2" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BJ2" s="10" t="s">
         <v>94</v>
@@ -1367,85 +1367,85 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="BM2" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="BN2" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO2" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="BN2" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BO2" s="8" t="s">
+      <c r="BP2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="BP2" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ2" s="8" t="s">
+      <c r="BR2" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="BR2" s="7" t="s">
+      <c r="BS2" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="BS2" s="7" t="s">
+      <c r="BT2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU2" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="BT2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU2" s="7" t="s">
+      <c r="BV2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW2" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX2" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="BY2" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="BV2" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="BW2" s="8" t="s">
+      <c r="BZ2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA2" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="BX2" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="BY2" s="7" t="s">
+      <c r="CB2" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="BZ2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA2" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="CB2" s="7" t="s">
+      <c r="CC2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD2" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="CC2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="CD2" s="9" t="s">
+      <c r="CE2" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="CE2" s="9" t="s">
+      <c r="CF2" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="CG2" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="CF2" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="CG2" s="7" t="s">
+      <c r="CH2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="CI2" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="CJ2" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK2" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="CH2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="CI2" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="CJ2" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="CK2" s="10" t="s">
-        <v>132</v>
-      </c>
       <c r="CL2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="CM2" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="CM2" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="CN2" s="9" t="s">
         <v>97</v>

--- a/Excel/AirpositiveGL.xlsx
+++ b/Excel/AirpositiveGL.xlsx
@@ -429,7 +429,7 @@
     <t>100</t>
   </si>
   <si>
-    <t>9210291289</t>
+    <t>9310291349</t>
   </si>
 </sst>
 </file>
@@ -804,7 +804,7 @@
   <dimension ref="A1:CN2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
